--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dataset Batik\project-pembelajaran-mesin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UMM\ML\Praktikum\project-pembelajaran-mesin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C58EF24-913E-4CC8-B68A-4E97ED5D2669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69C266-C3C3-4D38-A226-89662AE109E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="15648" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -159,12 +159,6 @@
     <t>Modelling menggunakan Algoritma CNN Part 1</t>
   </si>
   <si>
-    <t>Preprocessing Dataset  Part 2 (Balancing Class)</t>
-  </si>
-  <si>
-    <t>Modelling CNN dengan Oversampling Data</t>
-  </si>
-  <si>
     <t>28-9-2022</t>
   </si>
   <si>
@@ -180,13 +174,40 @@
     <t>12-10-2022</t>
   </si>
   <si>
-    <t>12-10-2023</t>
-  </si>
-  <si>
     <t>13-10-2022</t>
   </si>
   <si>
     <t>13-10-2023</t>
+  </si>
+  <si>
+    <t>13-12-2022</t>
+  </si>
+  <si>
+    <t>15-12-2022</t>
+  </si>
+  <si>
+    <t>Modelling Menggunakan Transfer Learning</t>
+  </si>
+  <si>
+    <t>Preprocessing Dataset  Part 2</t>
+  </si>
+  <si>
+    <t>29-11-2022</t>
+  </si>
+  <si>
+    <t>01-12-2022</t>
+  </si>
+  <si>
+    <t>17-12-2022</t>
+  </si>
+  <si>
+    <t>01-11-2022</t>
+  </si>
+  <si>
+    <t>03-11-2022</t>
+  </si>
+  <si>
+    <t>16-11-2022</t>
   </si>
 </sst>
 </file>
@@ -269,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -280,7 +301,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,16 +634,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>38</v>
@@ -638,16 +660,16 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>38</v>
@@ -664,17 +686,19 @@
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>38</v>
@@ -688,17 +712,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -708,14 +734,20 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -725,14 +757,20 @@
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -740,16 +778,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -757,16 +801,22 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -776,14 +826,20 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,14 +849,20 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -810,14 +872,20 @@
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -827,36 +895,42 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
